--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H2">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>0.2082249292107778</v>
+        <v>0.05606207467544445</v>
       </c>
       <c r="R2">
-        <v>1.874024362897</v>
+        <v>0.5045586720790001</v>
       </c>
       <c r="S2">
-        <v>0.0008832913292089772</v>
+        <v>0.0001903748127858146</v>
       </c>
       <c r="T2">
-        <v>0.0008832913292089774</v>
+        <v>0.0001903748127858146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H3">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>0.7668392039772224</v>
+        <v>1.153245304396111</v>
       </c>
       <c r="R3">
-        <v>6.901552835795002</v>
+        <v>10.379207739565</v>
       </c>
       <c r="S3">
-        <v>0.003252936247056894</v>
+        <v>0.003916174351226664</v>
       </c>
       <c r="T3">
-        <v>0.003252936247056895</v>
+        <v>0.003916174351226663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H4">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>1.908457946488111</v>
+        <v>3.188317355482</v>
       </c>
       <c r="R4">
-        <v>17.176121518393</v>
+        <v>28.694856199338</v>
       </c>
       <c r="S4">
-        <v>0.008095689419524439</v>
+        <v>0.01082684369362999</v>
       </c>
       <c r="T4">
-        <v>0.008095689419524441</v>
+        <v>0.01082684369362999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H5">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>1.144198347726222</v>
+        <v>3.104506148807777</v>
       </c>
       <c r="R5">
-        <v>10.297785129536</v>
+        <v>27.94055533927</v>
       </c>
       <c r="S5">
-        <v>0.004853695872403248</v>
+        <v>0.01054223876467707</v>
       </c>
       <c r="T5">
-        <v>0.004853695872403248</v>
+        <v>0.01054223876467707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.972371</v>
       </c>
       <c r="I6">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J6">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>11.97892520799078</v>
+        <v>2.144553615901889</v>
       </c>
       <c r="R6">
-        <v>107.810326871917</v>
+        <v>19.300982543117</v>
       </c>
       <c r="S6">
-        <v>0.05081466858730683</v>
+        <v>0.007282445316196767</v>
       </c>
       <c r="T6">
-        <v>0.05081466858730684</v>
+        <v>0.007282445316196766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.972371</v>
       </c>
       <c r="I7">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J7">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
-        <v>44.11532041727723</v>
+        <v>44.11532041727722</v>
       </c>
       <c r="R7">
-        <v>397.0378837554951</v>
+        <v>397.037883755495</v>
       </c>
       <c r="S7">
-        <v>0.1871374391027519</v>
+        <v>0.1498061909775157</v>
       </c>
       <c r="T7">
-        <v>0.1871374391027519</v>
+        <v>0.1498061909775156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.972371</v>
       </c>
       <c r="I8">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J8">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>109.7912487723081</v>
+        <v>121.963333553486</v>
       </c>
       <c r="R8">
-        <v>988.1212389507731</v>
+        <v>1097.670001981374</v>
       </c>
       <c r="S8">
-        <v>0.4657350992082169</v>
+        <v>0.4141613903230862</v>
       </c>
       <c r="T8">
-        <v>0.4657350992082169</v>
+        <v>0.4141613903230861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.972371</v>
       </c>
       <c r="I9">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J9">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>65.82432988436621</v>
+        <v>118.7572869102455</v>
       </c>
       <c r="R9">
-        <v>592.418968959296</v>
+        <v>1068.81558219221</v>
       </c>
       <c r="S9">
-        <v>0.2792271802335308</v>
+        <v>0.4032743417608818</v>
       </c>
       <c r="T9">
-        <v>0.2792271802335309</v>
+        <v>0.4032743417608818</v>
       </c>
     </row>
   </sheetData>
